--- a/4G_Daily_Update.xlsx
+++ b/4G_Daily_Update.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B202DE38-B949-4737-9268-52D7EF67EE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E90A7F-3AEE-444D-AF13-D366256A5D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D7B807F-7D75-4C26-B14A-6863AAF865EE}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="136">
   <si>
     <t>Circle</t>
   </si>
@@ -2061,6 +2061,66 @@
   </si>
   <si>
     <t>Site Id</t>
+  </si>
+  <si>
+    <t>10-Dec-2025 10:34 PM</t>
+  </si>
+  <si>
+    <t>1. Session establishment time(ms)
+2. TCP UL (Mbps)
+3. Network Detach Success rate
+4. Round trip time or Latency(ms)
+5. CSFB: MO call set up time
+6. CSFB: MT call set up time
+7. Check functioning of ViLTE</t>
+  </si>
+  <si>
+    <t>1. Static ATDT
+2. Static UL
+3. Static Cell Reselection
+4. Static Ping
+5. Static CSFB MO
+6. Static CSFB MT
+7. Static Video call MO</t>
+  </si>
+  <si>
+    <t>1. Session Abnormal Release Rate failed due to RLF, poor RF conditions, S1/backhaul instability, handover failures, or hardware issues. Improve RF coverage, verify S1 link, optimize HO parameters, and fix hardware/transport faults to reduce abnormal releases.Exclude ATDT in failed Sector and Redo again.
+2. The peak value is not meeting the acceptance criteria. Please redo the static test in the site’s main lobe with strong coverage. While performing the UL static test, start uploading a long video on YouTube to ensure proper uplink loading.
+3. Exclude the current logfile and create a new one. Ensure that the Detach Request matches the Detach Accept. Verify this in the Event tab of AZQ before saving the logfile
+4. The Ping is above the acceptance criteria , Kinldy Exclud the logfile and Create new and verify the ping should bhe 40 to 50 ms , before saving the logfile
+5. MO CSFB Call Setup Time (ms) is higher than the acceptance criteria. If the value appears as NA or 0, it indicates that the call was not successfully established. Kindly redo the test and verify the call setup time.
+6. MT CSFB Call Setup Time (ms) is higher than the acceptance criteria. If the value appears as NA or 0, it indicates that the call was not successfully established. Kindly redo the test and verify the call setup time.
+7. Do not use WhatsApp for this test. Perform a manual VoLTE video call after running the script.</t>
+  </si>
+  <si>
+    <t>11-Dec-2025 11:24 AM</t>
+  </si>
+  <si>
+    <t>1. TCP DL (Mbps)
+2. Round trip time or Latency(ms)
+3. CSFB: MO call set up time
+4. CSFB: MT call set up time
+5. Fast Return Time
+6. Check functioning of ViLTE
+7. Volte abnormal release rate , drop rate . Mention the cause code of abnormal release</t>
+  </si>
+  <si>
+    <t>1. Static DL
+2. Static Ping
+3. Static CSFB MO
+4. Static CSFB MT
+5. Static CSFB MO
+6. Static Video call MO
+7. Drive Volte SCMO</t>
+  </si>
+  <si>
+    <t>1. The peak value is not meeting the acceptance criteria. Please redo the static test in the site’s main lobe with good coverage, and use the Okhla Speedtest while running the script.
+2. The Ping is above the acceptance criteria , Kinldy Exclud the logfile and Create new and verify the ping should bhe 40 to 50 ms , before saving the logfile
+3. MO CSFB Call Setup Time (ms) is higher than the acceptance criteria. If the value appears as NA or 0, it indicates that the call was not successfully established. Kindly redo the test and verify the call setup time.
+4. MT CSFB Call Setup Time (ms) is higher than the acceptance criteria. If the value appears as NA or 0, it indicates that the call was not successfully established. Kindly redo the test and verify the call setup time.
+5. Reselection Time After CSFB Call Idle to LTE (ms)
+6. Do not use WhatsApp for this test. Perform a manual VoLTE video call after running the script.
+7. There is a call drop in the failed sector. Kindly exclude the affected logfile, create a new logfile, and redo the test to verify successful call completion with no drops.</t>
   </si>
 </sst>
 </file>
@@ -2532,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D140C61-4D9D-4621-91A9-AB3DA2476B3B}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3250,6 +3310,58 @@
         <v>126</v>
       </c>
     </row>
+    <row r="29" spans="1:8" ht="142.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="114" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/4G_Daily_Update.xlsx
+++ b/4G_Daily_Update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E90A7F-3AEE-444D-AF13-D366256A5D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8954E661-BB2A-4605-A615-53F21AEF382E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D7B807F-7D75-4C26-B14A-6863AAF865EE}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="148">
   <si>
     <t>Circle</t>
   </si>
@@ -2122,12 +2122,63 @@
 6. Do not use WhatsApp for this test. Perform a manual VoLTE video call after running the script.
 7. There is a call drop in the failed sector. Kindly exclude the affected logfile, create a new logfile, and redo the test to verify successful call completion with no drops.</t>
   </si>
+  <si>
+    <t>11-Dec-2025 6:20 PM</t>
+  </si>
+  <si>
+    <t>1. VOLTE setup SR</t>
+  </si>
+  <si>
+    <t>1. Drive Volte SCMO</t>
+  </si>
+  <si>
+    <t>1. Add a VoLTE short-call drive across all sectors. Do not disconnect the call manually, as it will be counted as a call drop. Each sector must have at least one successful MO session setup.</t>
+  </si>
+  <si>
+    <t>11-Dec-2025 11:10 PM</t>
+  </si>
+  <si>
+    <t>1. Session establishment time(ms)
+2. TCP UL (Mbps)
+3. Network Detach Success rate
+4. Round trip time or Latency(ms)
+5. Check functioning of ViLTE</t>
+  </si>
+  <si>
+    <t>1. Static ATDT
+2. Static UL
+3. Static Cell Reselection
+4. Static Ping
+5. Static Video call MO</t>
+  </si>
+  <si>
+    <t>1. Session Abnormal Release Rate failed due to RLF, poor RF conditions, S1/backhaul instability, handover failures, or hardware issues. Improve RF coverage, verify S1 link, optimize HO parameters, and fix hardware/transport faults to reduce abnormal releases.Exclude ATDT in failed Sector and Redo again.
+2. The peak value is not meeting the acceptance criteria. Please redo the static test in the site’s main lobe with strong coverage. While performing the UL static test, start uploading a long video on YouTube to ensure proper uplink loading.
+3. Exclude the current logfile and create a new one. Ensure that the Detach Request matches the Detach Accept. Verify this in the Event tab of AZQ before saving the logfile
+4. The Ping is above the acceptance criteria , Kinldy Exclud the logfile and Create new and verify the ping should bhe 40 to 50 ms , before saving the logfile
+5. Do not use WhatsApp for this test. Perform a manual VoLTE video call after running the script.</t>
+  </si>
+  <si>
+    <t>11-Dec-2025 11:24 PM</t>
+  </si>
+  <si>
+    <t>1. Session establishment time(ms)
+2. Network Detach Success rate</t>
+  </si>
+  <si>
+    <t>1. Static ATDT
+2. Static Cell Reselection</t>
+  </si>
+  <si>
+    <t>1. Session Abnormal Release Rate failed due to RLF, poor RF conditions, S1/backhaul instability, handover failures, or hardware issues. Improve RF coverage, verify S1 link, optimize HO parameters, and fix hardware/transport faults to reduce abnormal releases.Exclude ATDT in failed Sector and Redo again.
+2. Exclude the current logfile and create a new one. Ensure that the Detach Request matches the Detach Accept. Verify this in the Event tab of AZQ before saving the logfile</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2204,6 +2255,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2243,8 +2301,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2279,8 +2338,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C2F956F0-9979-49CC-96DA-E398EF16BA99}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2592,10 +2652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D140C61-4D9D-4621-91A9-AB3DA2476B3B}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3362,6 +3422,84 @@
         <v>135</v>
       </c>
     </row>
+    <row r="31" spans="1:8" ht="19" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="104.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="47.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/4G_Daily_Update.xlsx
+++ b/4G_Daily_Update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8954E661-BB2A-4605-A615-53F21AEF382E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC343CF4-5280-4CDC-A4D0-4D25A17D55F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D7B807F-7D75-4C26-B14A-6863AAF865EE}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="149">
   <si>
     <t>Circle</t>
   </si>
@@ -2172,6 +2172,9 @@
   <si>
     <t>1. Session Abnormal Release Rate failed due to RLF, poor RF conditions, S1/backhaul instability, handover failures, or hardware issues. Improve RF coverage, verify S1 link, optimize HO parameters, and fix hardware/transport faults to reduce abnormal releases.Exclude ATDT in failed Sector and Redo again.
 2. Exclude the current logfile and create a new one. Ensure that the Detach Request matches the Detach Accept. Verify this in the Event tab of AZQ before saving the logfile</t>
+  </si>
+  <si>
+    <t>HNGRA1_BID_P47</t>
   </si>
 </sst>
 </file>
@@ -2652,10 +2655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D140C61-4D9D-4621-91A9-AB3DA2476B3B}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3500,6 +3503,32 @@
         <v>147</v>
       </c>
     </row>
+    <row r="34" spans="1:8" ht="142.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/4G_Daily_Update.xlsx
+++ b/4G_Daily_Update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC343CF4-5280-4CDC-A4D0-4D25A17D55F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB2201E-B50D-49DE-AAC8-3144E09500C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D7B807F-7D75-4C26-B14A-6863AAF865EE}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="159">
   <si>
     <t>Circle</t>
   </si>
@@ -2175,6 +2175,78 @@
   </si>
   <si>
     <t>HNGRA1_BID_P47</t>
+  </si>
+  <si>
+    <t>864954_GJ_P47</t>
+  </si>
+  <si>
+    <t>13-Dec-2025 1:34 PM</t>
+  </si>
+  <si>
+    <t>1. TCP DL (Mbps)
+2. Network Detach time(ms)
+3. Network Detach Success rate
+4. Round trip time or Latency(ms)
+5. VOLTE setup SR
+6. Check functioning of ViLTE</t>
+  </si>
+  <si>
+    <t>1. Static DL
+2. Static Cell Reselection
+3. Static Cell Reselection
+4. Static Ping
+5. Drive Volte SCMO
+6. Static Video call MO</t>
+  </si>
+  <si>
+    <t>1. The peak value is not meeting the acceptance criteria. Please redo the static test in the site’s main lobe with good coverage, and use the Okhla Speedtest while running the script.
+2. The Detach Request count is higher than the Detach Accept count. The acceptance criteria require a 100 percent match. Please exclude this logfile, create a new one, and ensure that the Detach Request equals the Detach Accept in the Event tab.
+3. Exclude the current logfile and create a new one. Ensure that the Detach Request matches the Detach Accept. Verify this in the Event tab of AZQ before saving the logfile
+4. The Ping is above the acceptance criteria , Kinldy Exclud the logfile and Create new and verify the ping should bhe 40 to 50 ms , before saving the logfile
+5. Add a VoLTE short-call drive across all sectors. Do not disconnect the call manually, as it will be counted as a call drop. Each sector must have at least one successful MO session setup.
+6. Do not use WhatsApp for this test. Perform a manual VoLTE video call after running the script.</t>
+  </si>
+  <si>
+    <t>TALAK1_BLG_P47</t>
+  </si>
+  <si>
+    <t>15-Dec-2025 6:57 AM</t>
+  </si>
+  <si>
+    <t>1. PCI
+2. RSRP (Average Value)
+3. SINR (Average Value)
+4. TCP DL (Mbps)
+5. TCP UL (Mbps)
+6. Network Detach time(ms)
+7. Network Detach Success rate
+8. Round trip time or Latency(ms)
+9. VOLTE setup SR
+10. Check functioning of ViLTE</t>
+  </si>
+  <si>
+    <t>1. Static All
+2. Drive DL Ftp
+3. Drive DL Ftp
+4. Static DL
+5. Static UL
+6. Static Cell Reselection
+7. Static Cell Reselection
+8. Static Ping
+9. Drive Volte SCMO
+10. Static Video call MO</t>
+  </si>
+  <si>
+    <t>1. Since the serving cell of the failed sector is different from the recorded PCI, the report is displaying the recorded PCI as the failed sector. Please exclude the current logfile and redo the test with the correct serving PCI.
+2. It appears that the PCI recorded in the site database does not match the actual serving PCI observed on the site, or the failed sector has no corresponding drive data. Request you to please verify the serving cells in the DL drive along with the PCI details in the site database.
+3. It appears that the PCI recorded in the site database does not match the actual serving PCI observed on the site, or the failed sector has no corresponding drive data. Request you to please verify the serving cells in the DL drive along with the PCI details in the site database.
+4. The peak value is not meeting the acceptance criteria. Please redo the static test in the site’s main lobe with good coverage, and use the Okhla Speedtest while running the script.
+5. The peak value is not meeting the acceptance criteria. Please redo the static test in the site’s main lobe with strong coverage. While performing the UL static test, start uploading a long video on YouTube to ensure proper uplink loading.
+6. The Detach Request count is higher than the Detach Accept count. The acceptance criteria require a 100 percent match. Please exclude this logfile, create a new one, and ensure that the Detach Request equals the Detach Accept in the Event tab.
+7. Exclude the current logfile and create a new one. Ensure that the Detach Request matches the Detach Accept. Verify this in the Event tab of AZQ before saving the logfile
+8. The Ping is above the acceptance criteria , Kinldy Exclud the logfile and Create new and verify the ping should bhe 40 to 50 ms , before saving the logfile
+9. Add a VoLTE short-call drive across all sectors. Do not disconnect the call manually, as it will be counted as a call drop. Each sector must have at least one successful MO session setup.
+10. Do not use WhatsApp for this test. Perform a manual VoLTE video call after running the script.</t>
   </si>
 </sst>
 </file>
@@ -2655,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D140C61-4D9D-4621-91A9-AB3DA2476B3B}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3529,6 +3601,58 @@
         <v>126</v>
       </c>
     </row>
+    <row r="35" spans="1:8" ht="114" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="218.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/4G_Daily_Update.xlsx
+++ b/4G_Daily_Update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB2201E-B50D-49DE-AAC8-3144E09500C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29379A53-4AAB-4A90-BB10-3C4FD9295610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D7B807F-7D75-4C26-B14A-6863AAF865EE}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="168">
   <si>
     <t>Circle</t>
   </si>
@@ -2247,6 +2247,45 @@
 8. The Ping is above the acceptance criteria , Kinldy Exclud the logfile and Create new and verify the ping should bhe 40 to 50 ms , before saving the logfile
 9. Add a VoLTE short-call drive across all sectors. Do not disconnect the call manually, as it will be counted as a call drop. Each sector must have at least one successful MO session setup.
 10. Do not use WhatsApp for this test. Perform a manual VoLTE video call after running the script.</t>
+  </si>
+  <si>
+    <t>16-Dec-2025 5:27 AM</t>
+  </si>
+  <si>
+    <t>1. Network Detach Success rate
+2. VOLTE setup SR
+3. Check functioning of ViLTE</t>
+  </si>
+  <si>
+    <t>1. Static Cell Reselection
+2. Drive Volte SCMO
+3. Static Video call MO</t>
+  </si>
+  <si>
+    <t>1. Exclude the current logfile and create a new one. Ensure that the Detach Request matches the Detach Accept. Verify this in the Event tab of AZQ before saving the logfile
+2. Add a VoLTE short-call drive across all sectors. Do not disconnect the call manually, as it will be counted as a call drop. Each sector must have at least one successful MO session setup.
+3. Do not use WhatsApp for this test. Perform a manual VoLTE video call after running the script.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2. Add a VoLTE short-call drive across all sectors. Do not disconnect the call manually, as it will be counted as a call drop. Each sector must have at least one successful MO session setup.
+3. Do not use WhatsApp for this test. Perform a manual VoLTE video call after running the script.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2. Drive Volte SCMO
+3. Static Video call MO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2. VOLTE setup SR
+3. Check functioning of ViLTE</t>
+  </si>
+  <si>
+    <t>SHANK1_HAS_P47</t>
+  </si>
+  <si>
+    <t>DEV001_TUM_P47</t>
   </si>
 </sst>
 </file>
@@ -2380,7 +2419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2411,6 +2450,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2727,10 +2769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D140C61-4D9D-4621-91A9-AB3DA2476B3B}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3579,7 +3621,7 @@
       <c r="A34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -3605,7 +3647,7 @@
       <c r="A35" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -3631,7 +3673,7 @@
       <c r="A36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -3651,6 +3693,84 @@
       </c>
       <c r="H36" s="10" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="47.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="47.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="11">
+        <v>46006.289583333331</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="38" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="11">
+        <v>46006.289583333331</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/4G_Daily_Update.xlsx
+++ b/4G_Daily_Update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29379A53-4AAB-4A90-BB10-3C4FD9295610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EBD281-B3DD-4B72-9E4C-960B7FE11B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D7B807F-7D75-4C26-B14A-6863AAF865EE}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="172">
   <si>
     <t>Circle</t>
   </si>
@@ -2286,6 +2286,21 @@
   </si>
   <si>
     <t>DEV001_TUM_P47</t>
+  </si>
+  <si>
+    <t>16-Dec-2025 1:25 PM</t>
+  </si>
+  <si>
+    <t>1. VOLTE setup SR
+2. Check functioning of ViLTE</t>
+  </si>
+  <si>
+    <t>1. Drive Volte SCMO
+2. Static Video call MO</t>
+  </si>
+  <si>
+    <t>1. Add a VoLTE short-call drive across all sectors. Do not disconnect the call manually, as it will be counted as a call drop. Each sector must have at least one successful MO session setup.
+2. Do not use WhatsApp for this test. Perform a manual VoLTE video call after running the script.</t>
   </si>
 </sst>
 </file>
@@ -2769,10 +2784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D140C61-4D9D-4621-91A9-AB3DA2476B3B}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3773,6 +3788,32 @@
         <v>163</v>
       </c>
     </row>
+    <row r="40" spans="1:8" ht="38" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/4G_Daily_Update.xlsx
+++ b/4G_Daily_Update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EBD281-B3DD-4B72-9E4C-960B7FE11B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3BFF24-38D0-41A4-BAC4-604E513E762F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D7B807F-7D75-4C26-B14A-6863AAF865EE}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="178">
   <si>
     <t>Circle</t>
   </si>
@@ -2301,6 +2301,24 @@
   <si>
     <t>1. Add a VoLTE short-call drive across all sectors. Do not disconnect the call manually, as it will be counted as a call drop. Each sector must have at least one successful MO session setup.
 2. Do not use WhatsApp for this test. Perform a manual VoLTE video call after running the script.</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>ZRP803_CHD_P45</t>
+  </si>
+  <si>
+    <t>18-Dec-2025 6:27 PM</t>
+  </si>
+  <si>
+    <t>1. Network Detach Success rate</t>
+  </si>
+  <si>
+    <t>1. Static Cell Reselection</t>
+  </si>
+  <si>
+    <t>1. Exclude the current logfile and create a new one. Ensure that the Detach Request matches the Detach Accept. Verify this in the Event tab of AZQ before saving the logfile</t>
   </si>
 </sst>
 </file>
@@ -2784,10 +2802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D140C61-4D9D-4621-91A9-AB3DA2476B3B}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3814,6 +3832,32 @@
         <v>171</v>
       </c>
     </row>
+    <row r="41" spans="1:8" ht="19" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/4G_Daily_Update.xlsx
+++ b/4G_Daily_Update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3BFF24-38D0-41A4-BAC4-604E513E762F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590EC5F5-4EF3-47E4-A010-2E3DD4757F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D7B807F-7D75-4C26-B14A-6863AAF865EE}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="183">
   <si>
     <t>Circle</t>
   </si>
@@ -2319,6 +2319,27 @@
   </si>
   <si>
     <t>1. Exclude the current logfile and create a new one. Ensure that the Detach Request matches the Detach Accept. Verify this in the Event tab of AZQ before saving the logfile</t>
+  </si>
+  <si>
+    <t>GWPRA1_DAV_P47</t>
+  </si>
+  <si>
+    <t>22-Dec-2025 10:35 AM</t>
+  </si>
+  <si>
+    <t>1. Network Detach time(ms)
+2. Network Detach Success rate
+3. Fast Return Time</t>
+  </si>
+  <si>
+    <t>1. Static Cell Reselection
+2. Static Cell Reselection
+3. Static CSFB MO</t>
+  </si>
+  <si>
+    <t>1. The Detach Request count is higher than the Detach Accept count. The acceptance criteria require a 100 percent match. Please exclude this logfile, create a new one, and ensure that the Detach Request equals the Detach Accept in the Event tab.
+2. Exclude the current logfile and create a new one. Ensure that the Detach Request matches the Detach Accept. Verify this in the Event tab of AZQ before saving the logfile
+3. Reselection Time After CSFB Call Idle to LTE (ms)</t>
   </si>
 </sst>
 </file>
@@ -2802,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D140C61-4D9D-4621-91A9-AB3DA2476B3B}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="A42" sqref="A42:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3858,6 +3879,32 @@
         <v>177</v>
       </c>
     </row>
+    <row r="42" spans="1:8" ht="57" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/4G_Daily_Update.xlsx
+++ b/4G_Daily_Update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ODS7493\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590EC5F5-4EF3-47E4-A010-2E3DD4757F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE55898-1BB5-4B2B-9BA2-A6282588E617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D7B807F-7D75-4C26-B14A-6863AAF865EE}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="187">
   <si>
     <t>Circle</t>
   </si>
@@ -2340,6 +2340,18 @@
     <t>1. The Detach Request count is higher than the Detach Accept count. The acceptance criteria require a 100 percent match. Please exclude this logfile, create a new one, and ensure that the Detach Request equals the Detach Accept in the Event tab.
 2. Exclude the current logfile and create a new one. Ensure that the Detach Request matches the Detach Accept. Verify this in the Event tab of AZQ before saving the logfile
 3. Reselection Time After CSFB Call Idle to LTE (ms)</t>
+  </si>
+  <si>
+    <t>23-Dec-2025 10:04 AM</t>
+  </si>
+  <si>
+    <t>1. Fast Return Time</t>
+  </si>
+  <si>
+    <t>1. Static CSFB MO</t>
+  </si>
+  <si>
+    <t>1. Reselection Time After CSFB Call Idle to LTE (ms): To achieve a faster return time for CSFB MO, please verify that the 2G serving cell belongs to the same site. Additionally, ensure that background download test files are running during the test to facilitate quicker reselection to LTE.</t>
   </si>
 </sst>
 </file>
@@ -2823,10 +2835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D140C61-4D9D-4621-91A9-AB3DA2476B3B}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:H42"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3905,6 +3917,32 @@
         <v>182</v>
       </c>
     </row>
+    <row r="43" spans="1:8" ht="57" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
